--- a/doc/super-duper-nes-hardware-memo.xlsx
+++ b/doc/super-duper-nes-hardware-memo.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daisuke\nes\super-duper-nes\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="8805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connection" sheetId="1" r:id="rId1"/>
-    <sheet name="cartridge" sheetId="2" r:id="rId2"/>
+    <sheet name="cartridge" sheetId="5" r:id="rId2"/>
     <sheet name="gpio" sheetId="3" r:id="rId3"/>
     <sheet name="nes-fpga-interface" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="217">
   <si>
     <t>カートリッジコネクタピンアサイン</t>
   </si>
@@ -135,220 +140,794 @@
     <t>47:~CHR-WE</t>
   </si>
   <si>
+    <t>19:CHR-A6</t>
+  </si>
+  <si>
+    <t>20:CHR-A5</t>
+  </si>
+  <si>
+    <t>50:CHR-A7</t>
+  </si>
+  <si>
+    <t>21:CHR-A4</t>
+  </si>
+  <si>
+    <t>51:CHR-A8</t>
+  </si>
+  <si>
+    <t>22:CHR-A3</t>
+  </si>
+  <si>
+    <t>52:CHR-A9</t>
+  </si>
+  <si>
+    <t>23:CHR-A2</t>
+  </si>
+  <si>
+    <t>53:CHR-A10</t>
+  </si>
+  <si>
+    <t>24:CHR-A1</t>
+  </si>
+  <si>
+    <t>54:CHR-A11</t>
+  </si>
+  <si>
+    <t>25:CHR-A0</t>
+  </si>
+  <si>
+    <t>55:CHR-A12</t>
+  </si>
+  <si>
+    <t>26:CHR-D0</t>
+  </si>
+  <si>
+    <t>27:CHR-D1</t>
+  </si>
+  <si>
+    <t>57:CHR-D7</t>
+  </si>
+  <si>
+    <t>28:CHR-D2</t>
+  </si>
+  <si>
+    <t>29:CHR-D3</t>
+  </si>
+  <si>
+    <t>59:CHR-D5</t>
+  </si>
+  <si>
+    <t>30:Vcc</t>
+  </si>
+  <si>
+    <t>60:CHR-D4</t>
+  </si>
+  <si>
+    <t>max 60 lines.</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>4 lines</t>
+  </si>
+  <si>
+    <t>pin header</t>
+  </si>
+  <si>
+    <t>pin socket</t>
+  </si>
+  <si>
+    <t>cable w/ pin socket</t>
+  </si>
+  <si>
+    <t>QI connector</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>VCC33</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>VCC5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JP1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>output range</t>
+  </si>
+  <si>
+    <t>input range</t>
+  </si>
+  <si>
+    <t>input threshold</t>
+  </si>
+  <si>
+    <t>(v)</t>
+  </si>
+  <si>
+    <t>FPGA</t>
+  </si>
+  <si>
+    <t>NES</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>voh</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>vih</t>
+  </si>
+  <si>
+    <t>vil</t>
+  </si>
+  <si>
+    <t>vcc=5v, vss=0v</t>
+  </si>
+  <si>
+    <t>fpga side</t>
+  </si>
+  <si>
+    <t>nes side</t>
+  </si>
+  <si>
+    <t>おおよそ上半分がCPUからのアドレスバスとデータバス</t>
+  </si>
+  <si>
+    <t>IRQやオーディオなどを挟んで下半分がPPUのアドレスバスとデータバス</t>
+  </si>
+  <si>
+    <t>φ2(M2とも)はシステムクロック</t>
+  </si>
+  <si>
+    <t>SOUND INはAPU(2A03)からのサウンド出力。</t>
+  </si>
+  <si>
+    <t>SOUND OUTはカセット側に拡張音源が乗っていればSOUND INとミックスして出力。</t>
+  </si>
+  <si>
+    <t>特になければそのままOUTに直結する。</t>
+  </si>
+  <si>
+    <t>ピッチは2.54mm</t>
+  </si>
+  <si>
+    <t>基板厚は1.2mm</t>
+  </si>
+  <si>
+    <t>58:CHR-D6</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t>&lt;&gt; PPU D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|30   60| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      +5V -- </t>
+  </si>
+  <si>
+    <t>&lt;&gt; PPU D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|29   59| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU D3 &lt;&gt; </t>
+  </si>
+  <si>
+    <t>&lt;&gt; PPU D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|28   58| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU D2 &lt;&gt; </t>
+  </si>
+  <si>
+    <t>&lt;&gt; PPU D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|27   57| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU D1 &lt;&gt; </t>
+  </si>
+  <si>
+    <t>&lt;- PPU /A13</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">|26   56| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU D0 &lt;&gt; </t>
+  </si>
+  <si>
+    <t>&lt;- PPU A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|25   55| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU A0 -&gt; </t>
+  </si>
+  <si>
+    <t>To configure a cartridge board for horizontal mirroring, connect PPU A11 to CIRAM A10. On cartridge boards made by Nintendo, this is selected by shorting the "V" solder pad (for "vertical arrangement"). Note using inverse logic may make more sense, "Leaving the 'H' jumper open gives horizontal mirroring" on Nintendo boards.</t>
+  </si>
+  <si>
+    <t>&lt;- PPU A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|24   54| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU A1 -&gt; </t>
+  </si>
+  <si>
+    <t>&lt;- PPU A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|23   53| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU A2 -&gt; </t>
+  </si>
+  <si>
+    <t>https://wiki.nesdev.com/w/index.php/Mirroring</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>&lt;- PPU A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|22   52| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU A3 -&gt; </t>
+  </si>
+  <si>
+    <t>&lt;- PPU A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|21   51| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU A4 -&gt; </t>
+  </si>
+  <si>
+    <t>&lt;- PPU A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|20   50| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU A5 -&gt; </t>
+  </si>
+  <si>
+    <t>&lt;- PPU A13</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">|19   49| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PPU A6 -&gt; </t>
+  </si>
+  <si>
+    <t>-&gt; CIRAM /CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|18   48| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIRAM A10 &lt;- </t>
+  </si>
+  <si>
+    <t>&lt;- PPU /WR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|17   47| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PPU /RD -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             -------</t>
+  </si>
+  <si>
+    <t>-&gt; Audio to RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|16   46| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      GND -- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      GND - |14   15| - D3</t>
+  </si>
+  <si>
+    <t>&lt;- Audio from 2A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|15   45| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     /IRQ &lt;- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      D2  - |13   16| - D4</t>
+  </si>
+  <si>
+    <t>&lt;- /ROMSEL (/A15 + /M2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|14   44| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CPU R/W -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      D1  - |12   17| - D5</t>
+  </si>
+  <si>
+    <t>&lt;&gt; CPU D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|13   43| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A0 -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      D0  - |11   18| - D6</t>
+  </si>
+  <si>
+    <t>&lt;&gt; CPU D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|12   42| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A1 -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      A0  - |10   19| - D7</t>
+  </si>
+  <si>
+    <t>&lt;&gt; CPU D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|11   41| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A2 -&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      A1  - |09   20| - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>A11</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;&gt; CPU D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|10   40| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A3 -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      A2  - |08   21| - A10</t>
+  </si>
+  <si>
+    <t>&lt;&gt; CPU D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|09   39| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A4 -&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>+5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - |07   22| - /OE</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;&gt; CPU D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|08   38| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A5 -&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>+5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - |06   23| - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>NC</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;&gt; CPU D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|07   37| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A6 -&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>A3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  - |05   24| - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/CE</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;&gt; CPU D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|06   36| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A7 -&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>A4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  - |04   25| - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>A12</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;- CPU A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|05   35| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A8 -&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>A5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  - |03   26| - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>A9</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;- CPU A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|04   34| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CPU A9 -&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>A6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  - |02   27| - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>A8</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;- CPU A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|03   33| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CPU A10 -&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  - |01   28| - +5V</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;- M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|02   32| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CPU A11 -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ---_---</t>
+  </si>
+  <si>
+    <t>-- +5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|01   31| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RROM Non-standard 64-kbit CHR pinout</t>
+  </si>
+  <si>
+    <t>https://wiki.nesdev.com/w/index.php/Mask_ROM_pinout#8kB_.2F_16kB_.2F_32kB_.2F_64kBytes_.2828pin.29_ROMs</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Burgur time iNES dump</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>56~:CHR-A13</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>49:CHR-A13</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>48:~VRAM-CE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>18:VRAM-A10</t>
-  </si>
-  <si>
-    <t>48:??? C49</t>
-  </si>
-  <si>
-    <t>19:CHR-A6</t>
-  </si>
-  <si>
-    <t>49:??? C48</t>
-  </si>
-  <si>
-    <t>20:CHR-A5</t>
-  </si>
-  <si>
-    <t>50:CHR-A7</t>
-  </si>
-  <si>
-    <t>21:CHR-A4</t>
-  </si>
-  <si>
-    <t>51:CHR-A8</t>
-  </si>
-  <si>
-    <t>22:CHR-A3</t>
-  </si>
-  <si>
-    <t>52:CHR-A9</t>
-  </si>
-  <si>
-    <t>23:CHR-A2</t>
-  </si>
-  <si>
-    <t>53:CHR-A10</t>
-  </si>
-  <si>
-    <t>24:CHR-A1</t>
-  </si>
-  <si>
-    <t>54:CHR-A11</t>
-  </si>
-  <si>
-    <t>25:CHR-A0</t>
-  </si>
-  <si>
-    <t>55:CHR-A12</t>
-  </si>
-  <si>
-    <t>26:CHR-D0</t>
-  </si>
-  <si>
-    <t>56:~CHR-CE (CHR-A13)</t>
-  </si>
-  <si>
-    <t>27:CHR-D1</t>
-  </si>
-  <si>
-    <t>57:CHR-D7</t>
-  </si>
-  <si>
-    <t>28:CHR-D2</t>
-  </si>
-  <si>
-    <t>29:CHR-D3</t>
-  </si>
-  <si>
-    <t>59:CHR-D5</t>
-  </si>
-  <si>
-    <t>30:Vcc</t>
-  </si>
-  <si>
-    <t>60:CHR-D4</t>
-  </si>
-  <si>
-    <t>max 60 lines.</t>
-  </si>
-  <si>
-    <t>I2C</t>
-  </si>
-  <si>
-    <t>4 lines</t>
-  </si>
-  <si>
-    <t>pin header</t>
-  </si>
-  <si>
-    <t>pin socket</t>
-  </si>
-  <si>
-    <t>cable w/ pin socket</t>
-  </si>
-  <si>
-    <t>QI connector</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>VCC33</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>VCC5</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>JP1</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>//</t>
-  </si>
-  <si>
-    <t>output range</t>
-  </si>
-  <si>
-    <t>input range</t>
-  </si>
-  <si>
-    <t>input threshold</t>
-  </si>
-  <si>
-    <t>(v)</t>
-  </si>
-  <si>
-    <t>FPGA</t>
-  </si>
-  <si>
-    <t>NES</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>voh</t>
-  </si>
-  <si>
-    <t>vol</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>vih</t>
-  </si>
-  <si>
-    <t>vil</t>
-  </si>
-  <si>
-    <t>vcc=5v, vss=0v</t>
-  </si>
-  <si>
-    <t>fpga side</t>
-  </si>
-  <si>
-    <t>nes side</t>
-  </si>
-  <si>
-    <t>おおよそ上半分がCPUからのアドレスバスとデータバス</t>
-  </si>
-  <si>
-    <t>IRQやオーディオなどを挟んで下半分がPPUのアドレスバスとデータバス</t>
-  </si>
-  <si>
-    <t>φ2(M2とも)はシステムクロック</t>
-  </si>
-  <si>
-    <t>SOUND INはAPU(2A03)からのサウンド出力。</t>
-  </si>
-  <si>
-    <t>SOUND OUTはカセット側に拡張音源が乗っていればSOUND INとミックスして出力。</t>
-  </si>
-  <si>
-    <t>特になければそのままOUTに直結する。</t>
-  </si>
-  <si>
-    <t>ピッチは2.54mm</t>
-  </si>
-  <si>
-    <t>基板厚は1.2mm</t>
-  </si>
-  <si>
-    <t>58:CHR-D6</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>http://wiki.nesdev.com/w/index.php/Cartridge_connector</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,8 +960,45 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,18 +1013,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -446,57 +1080,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{D6F815A0-342E-4D6F-931A-D832D617F3AA}"/>
+    <cellStyle name="標準 4" xfId="3" xr:uid="{F2EFE5B6-5DC2-4E57-9306-B4C8BA080FE9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,7 +1226,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -588,7 +1287,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -651,7 +1356,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -706,7 +1417,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -769,7 +1486,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -824,7 +1547,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -887,7 +1616,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -949,7 +1684,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1014,7 +1755,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1069,7 +1816,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1158,7 +1911,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1223,7 +1982,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1232,7 +1997,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1267,7 +2032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1276,7 +2047,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1296,7 +2067,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1322,7 +2093,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1331,7 +2108,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1351,7 +2128,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1377,7 +2154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1439,7 +2222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Left Arrow 17"/>
+        <xdr:cNvPr id="18" name="Left Arrow 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1493,7 +2282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1548,7 +2343,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1610,7 +2411,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1619,7 +2426,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1639,7 +2446,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1665,7 +2472,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1674,7 +2487,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1694,7 +2507,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1720,7 +2533,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1791,10 +2610,6 @@
           <a:br>
             <a:rPr lang="ja-JP" altLang="en-US"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="ja-JP" altLang="en-US"/>
           </a:br>
@@ -1821,22 +2636,23 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>170970</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3152775" cy="5771670"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2" descr="fc%e3%82%ab%e3%83%bc%e3%83%88%e3%83%aa%e3%83%83%e3%82%b8%e3%82%b3%e3%83%8d%e3%82%af%e3%82%bf"/>
+        <xdr:cNvPr id="2" name="Picture 2" descr="fc%e3%82%ab%e3%83%bc%e3%83%88%e3%83%aa%e3%83%83%e3%82%b8%e3%82%b3%e3%83%8d%e3%82%af%e3%82%bf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA25174-A48C-466D-A983-8B6018041462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1850,7 +2666,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6486525" y="0"/>
+          <a:off x="5486400" y="0"/>
           <a:ext cx="3152775" cy="5771670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1860,7 +2676,693 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6572250" cy="6924675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C60B4A0-3499-4321-BF4B-AD62180ECCF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1028700" y="6381750"/>
+          <a:ext cx="6572250" cy="6924675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5934075" cy="2609850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C0AB52-6571-4262-AEF6-B89E4AB02B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4800600" y="7267575"/>
+          <a:ext cx="5934075" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8362AC2-E486-44AB-AB5F-73862B004654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="8096250"/>
+          <a:ext cx="285750" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F21E6A5-86F5-4929-8F5E-B8DE1BB45D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="10125075"/>
+          <a:ext cx="1590675" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68138"/>
+            <a:gd name="adj2" fmla="val -297774"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Mapper 0.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2602177" cy="6000751"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483D8CE8-04F7-42A4-B693-54944E1691AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="3905251" y="14277974"/>
+          <a:ext cx="2602177" cy="6000751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2460312" cy="6115050"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CFF81B-40ED-4821-9D1D-4C76006BE58F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5419725" y="14239875"/>
+          <a:ext cx="2460312" cy="6115050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708FC677-B388-4DC7-8BEB-93F9DEF05756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="17583150"/>
+          <a:ext cx="304800" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形吹き出し 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C0C8E0-2D9B-4A77-AF66-2FD0C2E696CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="18383250"/>
+          <a:ext cx="1590675" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -99875"/>
+            <a:gd name="adj2" fmla="val -12843"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>configure h mirror.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69E1307-4F81-4A69-B367-511D36AB4ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="17649825"/>
+          <a:ext cx="304800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フリーフォーム 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDD84BF-329C-43A5-B56E-48BB1C04F248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="17678400"/>
+          <a:ext cx="2333625" cy="952500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 1314450 w 2333625"/>
+            <a:gd name="connsiteY0" fmla="*/ 47625 h 1000125"/>
+            <a:gd name="connsiteX1" fmla="*/ 971550 w 2333625"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1000125"/>
+            <a:gd name="connsiteX2" fmla="*/ 847725 w 2333625"/>
+            <a:gd name="connsiteY2" fmla="*/ 200025 h 1000125"/>
+            <a:gd name="connsiteX3" fmla="*/ 28575 w 2333625"/>
+            <a:gd name="connsiteY3" fmla="*/ 133350 h 1000125"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 2333625"/>
+            <a:gd name="connsiteY4" fmla="*/ 561975 h 1000125"/>
+            <a:gd name="connsiteX5" fmla="*/ 933450 w 2333625"/>
+            <a:gd name="connsiteY5" fmla="*/ 609600 h 1000125"/>
+            <a:gd name="connsiteX6" fmla="*/ 1038225 w 2333625"/>
+            <a:gd name="connsiteY6" fmla="*/ 742950 h 1000125"/>
+            <a:gd name="connsiteX7" fmla="*/ 1362075 w 2333625"/>
+            <a:gd name="connsiteY7" fmla="*/ 762000 h 1000125"/>
+            <a:gd name="connsiteX8" fmla="*/ 1695450 w 2333625"/>
+            <a:gd name="connsiteY8" fmla="*/ 962025 h 1000125"/>
+            <a:gd name="connsiteX9" fmla="*/ 2333625 w 2333625"/>
+            <a:gd name="connsiteY9" fmla="*/ 1000125 h 1000125"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2333625" h="1000125">
+              <a:moveTo>
+                <a:pt x="1314450" y="47625"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="971550" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="847725" y="200025"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="28575" y="133350"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="561975"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="933450" y="609600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1038225" y="742950"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1362075" y="762000"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1695450" y="962025"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2333625" y="1000125"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3181350" cy="3067050"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71658CE6-C92F-41A4-A2D5-FEE1C5FAF9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12344400" y="18859500"/>
+          <a:ext cx="3181350" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1881,7 +3383,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1935,7 +3443,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1995,7 +3509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 16"/>
+        <xdr:cNvPr id="4" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2040,7 +3560,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 113"/>
+        <xdr:cNvPr id="2" name="Rectangle 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2102,7 +3628,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 112"/>
+        <xdr:cNvPr id="3" name="Rectangle 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2164,7 +3696,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 111"/>
+        <xdr:cNvPr id="4" name="Rectangle 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2226,7 +3764,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 110"/>
+        <xdr:cNvPr id="5" name="Rectangle 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2288,7 +3832,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 109"/>
+        <xdr:cNvPr id="6" name="Rectangle 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2351,7 +3901,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 108"/>
+        <xdr:cNvPr id="7" name="Rectangle 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2414,7 +3970,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 107"/>
+        <xdr:cNvPr id="8" name="Rectangle 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2477,7 +4039,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 106"/>
+        <xdr:cNvPr id="9" name="Rectangle 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2540,7 +4108,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 103"/>
+        <xdr:cNvPr id="10" name="Rectangle 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2605,7 +4179,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 102"/>
+        <xdr:cNvPr id="11" name="Rectangle 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2670,7 +4250,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 1"/>
+        <xdr:cNvPr id="12" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2707,7 +4293,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 2"/>
+        <xdr:cNvPr id="13" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2744,7 +4336,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Connector 5"/>
+        <xdr:cNvPr id="14" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2789,7 +4387,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Connector 6"/>
+        <xdr:cNvPr id="15" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2839,7 +4443,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Connector 10"/>
+        <xdr:cNvPr id="16" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2889,7 +4499,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Connector 11"/>
+        <xdr:cNvPr id="17" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2934,7 +4550,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Connector 13"/>
+        <xdr:cNvPr id="18" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2984,7 +4606,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 14"/>
+        <xdr:cNvPr id="19" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3034,7 +4662,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Connector 16"/>
+        <xdr:cNvPr id="20" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3079,7 +4713,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 18"/>
+        <xdr:cNvPr id="21" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3124,7 +4764,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Connector 20"/>
+        <xdr:cNvPr id="22" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3169,7 +4815,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Up-Down Arrow 24"/>
+        <xdr:cNvPr id="23" name="Up-Down Arrow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3223,7 +4875,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Up-Down Arrow 25"/>
+        <xdr:cNvPr id="24" name="Up-Down Arrow 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3277,7 +4935,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Connector 38"/>
+        <xdr:cNvPr id="25" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3322,7 +4986,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Connector 39"/>
+        <xdr:cNvPr id="26" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3372,7 +5042,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Connector 40"/>
+        <xdr:cNvPr id="27" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3422,7 +5098,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 41"/>
+        <xdr:cNvPr id="28" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3467,7 +5149,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Connector 42"/>
+        <xdr:cNvPr id="29" name="Straight Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3517,7 +5205,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Connector 43"/>
+        <xdr:cNvPr id="30" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3567,7 +5261,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Connector 44"/>
+        <xdr:cNvPr id="31" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3612,7 +5312,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Connector 45"/>
+        <xdr:cNvPr id="32" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3657,7 +5363,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Connector 46"/>
+        <xdr:cNvPr id="33" name="Straight Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3702,7 +5414,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Up-Down Arrow 47"/>
+        <xdr:cNvPr id="34" name="Up-Down Arrow 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3756,7 +5474,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Up-Down Arrow 48"/>
+        <xdr:cNvPr id="35" name="Up-Down Arrow 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3810,7 +5534,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Connector 49"/>
+        <xdr:cNvPr id="36" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3860,7 +5590,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Connector 51"/>
+        <xdr:cNvPr id="37" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3910,7 +5646,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Connector 52"/>
+        <xdr:cNvPr id="38" name="Straight Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3955,7 +5697,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 53"/>
+        <xdr:cNvPr id="39" name="Straight Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4005,7 +5753,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Connector 54"/>
+        <xdr:cNvPr id="40" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4055,7 +5809,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Connector 55"/>
+        <xdr:cNvPr id="41" name="Straight Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4100,7 +5860,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Connector 57"/>
+        <xdr:cNvPr id="42" name="Straight Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4145,7 +5911,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Connector 59"/>
+        <xdr:cNvPr id="43" name="Straight Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4190,7 +5962,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Connector 61"/>
+        <xdr:cNvPr id="44" name="Straight Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4235,7 +6013,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Up-Down Arrow 64"/>
+        <xdr:cNvPr id="45" name="Up-Down Arrow 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4289,7 +6073,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Up-Down Arrow 65"/>
+        <xdr:cNvPr id="46" name="Up-Down Arrow 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4343,7 +6133,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Connector 77"/>
+        <xdr:cNvPr id="47" name="Straight Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4393,7 +6189,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Connector 78"/>
+        <xdr:cNvPr id="48" name="Straight Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4443,7 +6245,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Connector 79"/>
+        <xdr:cNvPr id="49" name="Straight Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4488,7 +6296,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Connector 80"/>
+        <xdr:cNvPr id="50" name="Straight Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4538,7 +6352,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Connector 81"/>
+        <xdr:cNvPr id="51" name="Straight Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4588,7 +6408,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Connector 82"/>
+        <xdr:cNvPr id="52" name="Straight Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4633,7 +6459,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Straight Connector 83"/>
+        <xdr:cNvPr id="53" name="Straight Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4678,7 +6510,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Connector 84"/>
+        <xdr:cNvPr id="54" name="Straight Connector 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4723,7 +6561,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Connector 85"/>
+        <xdr:cNvPr id="55" name="Straight Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4768,7 +6612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Up-Down Arrow 86"/>
+        <xdr:cNvPr id="56" name="Up-Down Arrow 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4822,7 +6672,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Up-Down Arrow 87"/>
+        <xdr:cNvPr id="57" name="Up-Down Arrow 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4876,7 +6732,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Connector 93"/>
+        <xdr:cNvPr id="58" name="Straight Connector 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4926,7 +6788,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Down Arrow 95"/>
+        <xdr:cNvPr id="59" name="Down Arrow 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4980,7 +6848,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Straight Connector 96"/>
+        <xdr:cNvPr id="60" name="Straight Connector 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5030,7 +6904,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Up Arrow 99"/>
+        <xdr:cNvPr id="61" name="Up Arrow 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5084,7 +6964,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Up Arrow 100"/>
+        <xdr:cNvPr id="62" name="Up Arrow 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5138,7 +7024,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Down Arrow 101"/>
+        <xdr:cNvPr id="63" name="Down Arrow 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5192,7 +7084,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Left Arrow 114"/>
+        <xdr:cNvPr id="64" name="Left Arrow 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5246,7 +7144,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Right Arrow 115"/>
+        <xdr:cNvPr id="65" name="Right Arrow 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5543,55 +7447,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="AB11:BH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="11" spans="28:60">
+    <row r="11" spans="28:60" x14ac:dyDescent="0.15">
       <c r="AL11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AQ11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="BH11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="28:60">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="28:60" x14ac:dyDescent="0.15">
       <c r="AX13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="28:60">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="28:60" x14ac:dyDescent="0.15">
       <c r="AB15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="33:33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="33:33" x14ac:dyDescent="0.15">
       <c r="AG24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="33:33">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="33:33" x14ac:dyDescent="0.15">
       <c r="AG25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5599,624 +7503,1471 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871EC1A2-85DC-4AF5-B196-ABC3A00DDDF3}">
+  <dimension ref="B2:S116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="24.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="16.875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="30"/>
+      <c r="E2" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="E3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="N3" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="5" t="s">
+    <row r="8" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="5" t="s">
+    <row r="9" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="5" t="s">
+    <row r="10" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="5" t="s">
+    <row r="11" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="E31" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="5" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H41" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="5:16" x14ac:dyDescent="0.15">
+      <c r="P83" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="F85" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="L85" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M85" s="21"/>
+      <c r="P85" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="L86" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M86" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="P86" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="L87" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="M87" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="P87" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="L88" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M88" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="P88" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="L89" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="M89" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="P89" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="L90" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M90" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="P90" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G91" s="16"/>
+      <c r="L91" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="M91" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="P91" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="16"/>
+      <c r="L92" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="M92" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P92" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="L93" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="M93" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="P93" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E94" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G94" s="16"/>
+      <c r="L94" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M94" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P94" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G95" s="16"/>
+      <c r="L95" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M95" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="P95" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="5:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="L96" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M96" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="P96" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="L97" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M97" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="P97" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G98" s="16"/>
+      <c r="L98" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M98" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="P98" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E99" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="L99" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M99" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P99" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G100" s="16"/>
+      <c r="L100" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M100" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="P100" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101" s="16"/>
+      <c r="L101" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M101" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="P101" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="L102" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M102" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E103" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="L103" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M103" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E104" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G104" s="16"/>
+      <c r="L104" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M104" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E105" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G105" s="16"/>
+      <c r="L105" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M105" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G106" s="16"/>
+      <c r="L106" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M106" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E107" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G107" s="16"/>
+      <c r="L107" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M107" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="R107" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G108" s="16"/>
+      <c r="L108" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M108" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E109" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G109" s="16"/>
+      <c r="L109" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M109" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="S109" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E110" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" s="16"/>
+      <c r="L110" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M110" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E111" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="L111" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M111" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="5:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G112" s="16"/>
+      <c r="L112" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M112" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="5:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="L113" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M113" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="5:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E114" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G114" s="16"/>
+      <c r="L114" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="M114" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="5:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E115" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G115" s="16"/>
+      <c r="L115" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M115" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
+    <row r="116" spans="5:13" x14ac:dyDescent="0.15">
+      <c r="E116" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L116" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="R107" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="P83" r:id="rId3" location="8kB_.2F_16kB_.2F_32kB_.2F_64kBytes_.2828pin.29_ROMs" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E3:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="3" style="6"/>
-    <col min="8" max="8" width="3.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="3" style="6"/>
-    <col min="16" max="16" width="3.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="3" style="6"/>
+    <col min="1" max="7" width="3" style="1"/>
+    <col min="8" max="8" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="3" style="1"/>
+    <col min="16" max="16" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:18">
-      <c r="J3" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="5:18">
-      <c r="H6" s="6">
+    <row r="3" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="5:18">
-      <c r="H8" s="6">
+    <row r="8" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="K8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="5:18">
-      <c r="H10" s="6">
+    <row r="10" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="K10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="5:18">
-      <c r="H12" s="6">
+    <row r="12" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H12" s="1">
         <v>7</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="K12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="5:18">
-      <c r="H14" s="6">
+    <row r="14" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H14" s="1">
         <v>9</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="K14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="5:18">
-      <c r="E16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="6">
+    <row r="16" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="1">
         <v>11</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="K16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="1">
         <v>12</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="8:16">
-      <c r="H18" s="6">
+      <c r="R16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H18" s="1">
         <v>13</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="6">
+      <c r="K18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="8:16">
-      <c r="H20" s="6">
+    <row r="20" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H20" s="1">
         <v>15</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="6">
+      <c r="K20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="8:16">
-      <c r="H22" s="6">
+    <row r="22" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H22" s="1">
         <v>17</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" s="6">
+      <c r="K22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="8:16">
-      <c r="H24" s="6">
+    <row r="24" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H24" s="1">
         <v>19</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="6">
+      <c r="K24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="8:16">
-      <c r="H26" s="6">
+    <row r="26" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H26" s="1">
         <v>21</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" s="6">
+      <c r="K26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="8:16">
-      <c r="H28" s="6">
+    <row r="28" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H28" s="1">
         <v>23</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" s="6">
+      <c r="K28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="8:16">
-      <c r="H30" s="6">
+    <row r="30" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H30" s="1">
         <v>25</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" s="6">
+      <c r="K30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="8:16">
-      <c r="H32" s="6">
+    <row r="32" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H32" s="1">
         <v>27</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P32" s="6">
+      <c r="K32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="5:18">
-      <c r="E34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="6">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="1">
         <v>29</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" s="6">
+      <c r="K34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="1">
         <v>30</v>
       </c>
-      <c r="R34" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="5:18">
-      <c r="H36" s="6">
+      <c r="R34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H36" s="1">
         <v>31</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P36" s="6">
+      <c r="K36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="5:18">
-      <c r="H38" s="6">
+    <row r="38" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H38" s="1">
         <v>33</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P38" s="6">
+      <c r="K38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="5:18">
-      <c r="H40" s="6">
+    <row r="40" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H40" s="1">
         <v>35</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P40" s="6">
+      <c r="K40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:18">
-      <c r="H42" s="6">
+    <row r="42" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H42" s="1">
         <v>37</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P42" s="6">
+      <c r="K42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="5:18">
-      <c r="H44" s="6">
+    <row r="44" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="H44" s="1">
         <v>39</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P44" s="6">
+      <c r="K44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" s="1">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6224,7 +8975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:Q146"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6232,743 +8983,743 @@
       <selection pane="topRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="18.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="14.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="16.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="17.375" style="6" customWidth="1"/>
-    <col min="9" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="16.125" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
-      <c r="B3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="15" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="10">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="11">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="15">
-        <v>-0.3</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="D9" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="15">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="H9" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="10">
         <v>0.4</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="J16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="I39" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I50" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I51" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="I54" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="I56" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
         <v>2.4</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="16">
-        <v>5</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="15">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="I61" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>2</v>
+      </c>
+      <c r="I63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
         <v>0.8</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="I69" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="16">
-        <v>2</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="15">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
         <v>0.4</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="14">
+      <c r="I71" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="14">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="J16" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="8">
-        <v>5</v>
-      </c>
-      <c r="I18" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="I19" s="8">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="8">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I20" s="8">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I21" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="8">
-        <v>4.2</v>
-      </c>
-      <c r="I22" s="8">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="8">
-        <v>4</v>
-      </c>
-      <c r="I23" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="8">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="8">
-        <v>3.6</v>
-      </c>
-      <c r="I25" s="8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="I26" s="8">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="I27" s="8">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="8">
-        <v>3</v>
-      </c>
-      <c r="I28" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="I29" s="8">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="I30" s="8">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="I31" s="8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I32" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="8">
-        <v>2</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="I34" s="8">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="I35" s="8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="I36" s="8">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I37" s="8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="8">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="8">
+      <c r="I72" s="3">
         <v>0.2</v>
       </c>
-      <c r="I42" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Q42" s="9"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="8">
+      <c r="Q72" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="H73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="8">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
         <v>-0.2</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I74" s="3">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="8">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
         <v>-0.4</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I75" s="3">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="8">
-        <v>5</v>
-      </c>
-      <c r="I48" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="I49" s="8">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="8">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I50" s="8">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I51" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="8">
-        <v>4.2</v>
-      </c>
-      <c r="I52" s="8">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="8">
-        <v>4</v>
-      </c>
-      <c r="I53" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="I54" s="8">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="8">
-        <v>3.6</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="8">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="I56" s="8">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="I57" s="8">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="8">
-        <v>3</v>
-      </c>
-      <c r="I58" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="I59" s="8">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="I60" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="Q60" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="I61" s="8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I62" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="8">
-        <v>2</v>
-      </c>
-      <c r="I63" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="I64" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="P64" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="I65" s="8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="I66" s="8">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I67" s="8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="8">
-        <v>1</v>
-      </c>
-      <c r="I68" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I69" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="I70" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="P70" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="I71" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I72" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Q72" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="8">
-        <v>0</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I73" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="8">
-        <v>-0.2</v>
-      </c>
-      <c r="I74" s="8">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="8">
-        <v>-0.4</v>
-      </c>
-      <c r="I75" s="8">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="146" spans="16:16">
-      <c r="P146" s="6" t="s">
-        <v>74</v>
+    <row r="146" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P146" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
